--- a/data/trans_orig/iP30KDA2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E1EC42E-33BB-483F-AD8A-A154F5590C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{907E3EE1-99BC-4694-9C42-87588D9558CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{729E5F77-B2D7-4E18-BCFA-0C9581BFFDB1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A6620791-D249-4EAF-8BA3-6A2350651982}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si toman una 2ª pieza de fruta todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,220 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>52,9%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72927C53-591A-4917-A964-A18F1E584F23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896602ED-AD1D-4ABA-8236-2ABA488CDCB9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>27241</v>
+        <v>25015</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7">
-        <v>25568</v>
+        <v>27859</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +913,7 @@
         <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>52809</v>
+        <v>52873</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>15903</v>
+        <v>21480</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>20725</v>
+        <v>17426</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +964,7 @@
         <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>36627</v>
+        <v>38906</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +982,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1015,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D7" s="7">
-        <v>114289</v>
+        <v>104392</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,34 +1050,34 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I7" s="7">
-        <v>106354</v>
+        <v>117133</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>350</v>
       </c>
       <c r="N7" s="7">
-        <v>220643</v>
+        <v>221525</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,49 +1086,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>84</v>
+      </c>
+      <c r="D8" s="7">
+        <v>54907</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
         <v>99</v>
       </c>
-      <c r="D8" s="7">
-        <v>60428</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>64826</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>84</v>
-      </c>
-      <c r="I8" s="7">
-        <v>52411</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>183</v>
       </c>
       <c r="N8" s="7">
-        <v>112839</v>
+        <v>119734</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1170,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,55 +1184,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>144</v>
+      </c>
+      <c r="D10" s="7">
+        <v>105593</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
         <v>151</v>
       </c>
-      <c r="D10" s="7">
-        <v>128281</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>133071</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>144</v>
-      </c>
-      <c r="I10" s="7">
-        <v>109074</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>295</v>
       </c>
       <c r="N10" s="7">
-        <v>237355</v>
+        <v>238664</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>89</v>
+      </c>
+      <c r="D11" s="7">
+        <v>67479</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7">
         <v>92</v>
       </c>
-      <c r="D11" s="7">
-        <v>74197</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>79419</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>89</v>
-      </c>
-      <c r="I11" s="7">
-        <v>67039</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>181</v>
       </c>
       <c r="N11" s="7">
-        <v>141236</v>
+        <v>146899</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1325,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>182</v>
+      </c>
+      <c r="D13" s="7">
+        <v>131321</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>191</v>
       </c>
-      <c r="D13" s="7">
-        <v>156421</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>155558</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>182</v>
-      </c>
-      <c r="I13" s="7">
-        <v>136613</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>373</v>
       </c>
       <c r="N13" s="7">
-        <v>293035</v>
+        <v>286879</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>159</v>
+      </c>
+      <c r="D14" s="7">
+        <v>142946</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
         <v>150</v>
       </c>
-      <c r="D14" s="7">
-        <v>132573</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>149441</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>159</v>
-      </c>
-      <c r="I14" s="7">
-        <v>122825</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>309</v>
       </c>
       <c r="N14" s="7">
-        <v>255398</v>
+        <v>292387</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,7 +1450,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1471,7 +1465,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1480,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,49 +1500,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>544</v>
+      </c>
+      <c r="D16" s="7">
+        <v>366321</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>568</v>
       </c>
-      <c r="D16" s="7">
-        <v>426233</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>433620</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>544</v>
-      </c>
-      <c r="I16" s="7">
-        <v>377609</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1112</v>
       </c>
       <c r="N16" s="7">
-        <v>803842</v>
+        <v>799941</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>371</v>
+      </c>
+      <c r="D17" s="7">
+        <v>286813</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>372</v>
       </c>
-      <c r="D17" s="7">
-        <v>283100</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>311113</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>371</v>
-      </c>
-      <c r="I17" s="7">
-        <v>263000</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>743</v>
       </c>
       <c r="N17" s="7">
-        <v>546100</v>
+        <v>597926</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1635,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1655,7 +1649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
